--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf18</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf18</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H2">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I2">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J2">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>1.062474364209333</v>
+        <v>12.68649579590044</v>
       </c>
       <c r="R2">
-        <v>9.562269277884001</v>
+        <v>114.178462163104</v>
       </c>
       <c r="S2">
-        <v>0.001247661068112173</v>
+        <v>0.01735533604612407</v>
       </c>
       <c r="T2">
-        <v>0.001247661068112174</v>
+        <v>0.01735533604612407</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H3">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I3">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J3">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>11.43103512688611</v>
+        <v>76.20477294752223</v>
       </c>
       <c r="R3">
-        <v>102.879316141975</v>
+        <v>685.8429565277</v>
       </c>
       <c r="S3">
-        <v>0.0134234368154868</v>
+        <v>0.1042493895950534</v>
       </c>
       <c r="T3">
-        <v>0.01342343681548681</v>
+        <v>0.1042493895950534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H4">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I4">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J4">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.04791217535322222</v>
+        <v>0.4019441322817778</v>
       </c>
       <c r="R4">
-        <v>0.431209578179</v>
+        <v>3.617497190536</v>
       </c>
       <c r="S4">
-        <v>5.626315127260917E-05</v>
+        <v>0.0005498662199353904</v>
       </c>
       <c r="T4">
-        <v>5.626315127260918E-05</v>
+        <v>0.0005498662199353904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H5">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I5">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J5">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>7.959285630656999</v>
+        <v>12.40453313910178</v>
       </c>
       <c r="R5">
-        <v>71.63357067591299</v>
+        <v>111.640798251916</v>
       </c>
       <c r="S5">
-        <v>0.009346569805235164</v>
+        <v>0.01696960646879035</v>
       </c>
       <c r="T5">
-        <v>0.009346569805235167</v>
+        <v>0.01696960646879034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H6">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I6">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J6">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.1384732810043333</v>
+        <v>0.9159722905364446</v>
       </c>
       <c r="R6">
-        <v>1.246259529039</v>
+        <v>8.243750614828</v>
       </c>
       <c r="S6">
-        <v>0.0001626088379190523</v>
+        <v>0.001253065240941868</v>
       </c>
       <c r="T6">
-        <v>0.0001626088379190523</v>
+        <v>0.001253065240941868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1814536666666667</v>
+        <v>1.209657333333333</v>
       </c>
       <c r="H7">
-        <v>0.544361</v>
+        <v>3.628972</v>
       </c>
       <c r="I7">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="J7">
-        <v>0.02449781286002304</v>
+        <v>0.1420138414668746</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.2224931634257778</v>
+        <v>1.196314409727556</v>
       </c>
       <c r="R7">
-        <v>2.002438470832</v>
+        <v>10.766829687548</v>
       </c>
       <c r="S7">
-        <v>0.0002612731819972355</v>
+        <v>0.001636577896029535</v>
       </c>
       <c r="T7">
-        <v>0.0002612731819972356</v>
+        <v>0.001636577896029535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H8">
         <v>16.347287</v>
       </c>
       <c r="I8">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J8">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N8">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q8">
-        <v>31.90635141362534</v>
+        <v>57.14835711046487</v>
       </c>
       <c r="R8">
-        <v>287.1571627226281</v>
+        <v>514.335213994184</v>
       </c>
       <c r="S8">
-        <v>0.03746755105372399</v>
+        <v>0.07817989759288178</v>
       </c>
       <c r="T8">
-        <v>0.037467551053724</v>
+        <v>0.07817989759288177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H9">
         <v>16.347287</v>
       </c>
       <c r="I9">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J9">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q9">
-        <v>343.2766343038695</v>
+        <v>343.2766343038694</v>
       </c>
       <c r="R9">
-        <v>3089.489708734825</v>
+        <v>3089.489708734824</v>
       </c>
       <c r="S9">
-        <v>0.4031089188041186</v>
+        <v>0.4696081125137235</v>
       </c>
       <c r="T9">
-        <v>0.4031089188041187</v>
+        <v>0.4696081125137234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H10">
         <v>16.347287</v>
       </c>
       <c r="I10">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J10">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N10">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q10">
-        <v>1.438813730765889</v>
+        <v>1.810621875389555</v>
       </c>
       <c r="R10">
-        <v>12.949323576893</v>
+        <v>16.295596878506</v>
       </c>
       <c r="S10">
-        <v>0.00168959547318371</v>
+        <v>0.002476960667894089</v>
       </c>
       <c r="T10">
-        <v>0.00168959547318371</v>
+        <v>0.002476960667894089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H11">
         <v>16.347287</v>
       </c>
       <c r="I11">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J11">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N11">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q11">
-        <v>239.019192262719</v>
+        <v>55.87821105423455</v>
       </c>
       <c r="R11">
-        <v>2151.172730364471</v>
+        <v>502.9038994881109</v>
       </c>
       <c r="S11">
-        <v>0.2806796575649493</v>
+        <v>0.07644231678347815</v>
       </c>
       <c r="T11">
-        <v>0.2806796575649493</v>
+        <v>0.07644231678347814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H12">
         <v>16.347287</v>
       </c>
       <c r="I12">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J12">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N12">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O12">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P12">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q12">
-        <v>4.158384723390333</v>
+        <v>4.126144240695888</v>
       </c>
       <c r="R12">
-        <v>37.425462510513</v>
+        <v>37.135298166263</v>
       </c>
       <c r="S12">
-        <v>0.004883181091590381</v>
+        <v>0.005644633555563632</v>
       </c>
       <c r="T12">
-        <v>0.004883181091590381</v>
+        <v>0.005644633555563631</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.449095666666667</v>
+        <v>5.449095666666666</v>
       </c>
       <c r="H13">
         <v>16.347287</v>
       </c>
       <c r="I13">
-        <v>0.7356749981998848</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="J13">
-        <v>0.7356749981998849</v>
+        <v>0.6397241489963273</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N13">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q13">
-        <v>6.681521266327112</v>
+        <v>5.38899032509811</v>
       </c>
       <c r="R13">
-        <v>60.133691396944</v>
+        <v>48.50091292588299</v>
       </c>
       <c r="S13">
-        <v>0.007846094212318742</v>
+        <v>0.007372227882786354</v>
       </c>
       <c r="T13">
-        <v>0.007846094212318742</v>
+        <v>0.007372227882786353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H14">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I14">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J14">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N14">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P14">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q14">
-        <v>1.532779819134667</v>
+        <v>5.293316032432887</v>
       </c>
       <c r="R14">
-        <v>13.795018372212</v>
+        <v>47.63984429189599</v>
       </c>
       <c r="S14">
-        <v>0.001799939622774329</v>
+        <v>0.007241343868248887</v>
       </c>
       <c r="T14">
-        <v>0.001799939622774329</v>
+        <v>0.007241343868248885</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H15">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I15">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J15">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>188.990975</v>
       </c>
       <c r="O15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P15">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q15">
-        <v>16.49099549554722</v>
+        <v>31.79569464101944</v>
       </c>
       <c r="R15">
-        <v>148.418959459925</v>
+        <v>286.161251769175</v>
       </c>
       <c r="S15">
-        <v>0.01936533599991282</v>
+        <v>0.0434970360761998</v>
       </c>
       <c r="T15">
-        <v>0.01936533599991282</v>
+        <v>0.04349703607619979</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H16">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I16">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J16">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N16">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P16">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q16">
-        <v>0.06912055287744444</v>
+        <v>0.1677072498015555</v>
       </c>
       <c r="R16">
-        <v>0.622084975897</v>
+        <v>1.509365248214</v>
       </c>
       <c r="S16">
-        <v>8.116809754346704E-05</v>
+        <v>0.0002294262911132495</v>
       </c>
       <c r="T16">
-        <v>8.116809754346706E-05</v>
+        <v>0.0002294262911132494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H17">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I17">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J17">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N17">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P17">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q17">
-        <v>11.482472236851</v>
+        <v>5.175669877356555</v>
       </c>
       <c r="R17">
-        <v>103.342250131659</v>
+        <v>46.581028896209</v>
       </c>
       <c r="S17">
-        <v>0.01348383928892168</v>
+        <v>0.007080401982583031</v>
       </c>
       <c r="T17">
-        <v>0.01348383928892168</v>
+        <v>0.007080401982583029</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H18">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I18">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J18">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N18">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O18">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P18">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q18">
-        <v>0.1997686323196667</v>
+        <v>0.3821804609218889</v>
       </c>
       <c r="R18">
-        <v>1.797917690877</v>
+        <v>3.439624148297</v>
       </c>
       <c r="S18">
-        <v>0.0002345878202536624</v>
+        <v>0.0005228291906820588</v>
       </c>
       <c r="T18">
-        <v>0.0002345878202536624</v>
+        <v>0.0005228291906820586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2617743333333333</v>
+        <v>0.5047176666666666</v>
       </c>
       <c r="H19">
-        <v>0.785323</v>
+        <v>1.514153</v>
       </c>
       <c r="I19">
-        <v>0.035341796875</v>
+        <v>0.05925388349609548</v>
       </c>
       <c r="J19">
-        <v>0.035341796875</v>
+        <v>0.05925388349609547</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N19">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P19">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q19">
-        <v>0.3209800088195556</v>
+        <v>0.4991504625641111</v>
       </c>
       <c r="R19">
-        <v>2.888820079376</v>
+        <v>4.492354163077</v>
       </c>
       <c r="S19">
-        <v>0.000376926045594036</v>
+        <v>0.0006828460872684628</v>
       </c>
       <c r="T19">
-        <v>0.000376926045594036</v>
+        <v>0.0006828460872684626</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H20">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I20">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J20">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N20">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P20">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q20">
-        <v>4.606097793504</v>
+        <v>12.34728585612355</v>
       </c>
       <c r="R20">
-        <v>41.45488014153599</v>
+        <v>111.125572705112</v>
       </c>
       <c r="S20">
-        <v>0.005408929463581915</v>
+        <v>0.01689129123897443</v>
       </c>
       <c r="T20">
-        <v>0.005408929463581915</v>
+        <v>0.01689129123897442</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H21">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I21">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J21">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>188.990975</v>
       </c>
       <c r="O21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P21">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q21">
-        <v>49.5564575006</v>
+        <v>74.16721924805277</v>
       </c>
       <c r="R21">
-        <v>446.0081175053999</v>
+        <v>667.504973232475</v>
       </c>
       <c r="S21">
-        <v>0.05819402780891207</v>
+        <v>0.101461982439033</v>
       </c>
       <c r="T21">
-        <v>0.05819402780891208</v>
+        <v>0.101461982439033</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H22">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I22">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J22">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N22">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P22">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q22">
-        <v>0.207711520024</v>
+        <v>0.3911970002842222</v>
       </c>
       <c r="R22">
-        <v>1.869403680215999</v>
+        <v>3.520773002558</v>
       </c>
       <c r="S22">
-        <v>0.0002439151340138004</v>
+        <v>0.0005351639656367761</v>
       </c>
       <c r="T22">
-        <v>0.0002439151340138004</v>
+        <v>0.000535163965636776</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H23">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I23">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J23">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N23">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P23">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q23">
-        <v>34.50553652512799</v>
+        <v>12.07286228161922</v>
       </c>
       <c r="R23">
-        <v>310.5498287261519</v>
+        <v>108.655760534573</v>
       </c>
       <c r="S23">
-        <v>0.04051976782400998</v>
+        <v>0.0165158752508936</v>
       </c>
       <c r="T23">
-        <v>0.04051976782400998</v>
+        <v>0.01651587525089359</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H24">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I24">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J24">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N24">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O24">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P24">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q24">
-        <v>0.6003170481839999</v>
+        <v>0.8914811378565556</v>
       </c>
       <c r="R24">
-        <v>5.402853433655999</v>
+        <v>8.023330240708999</v>
       </c>
       <c r="S24">
-        <v>0.0007049508531912461</v>
+        <v>0.001219560939064138</v>
       </c>
       <c r="T24">
-        <v>0.0007049508531912463</v>
+        <v>0.001219560939064137</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7866479999999999</v>
+        <v>1.177313666666667</v>
       </c>
       <c r="H25">
-        <v>2.359944</v>
+        <v>3.531941</v>
       </c>
       <c r="I25">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="J25">
-        <v>0.1062042770737327</v>
+        <v>0.1382166931142909</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N25">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P25">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q25">
-        <v>0.9645647025919999</v>
+        <v>1.164327504485444</v>
       </c>
       <c r="R25">
-        <v>8.681082323327999</v>
+        <v>10.478947540369</v>
       </c>
       <c r="S25">
-        <v>0.001132685990023687</v>
+        <v>0.001592819280688981</v>
       </c>
       <c r="T25">
-        <v>0.001132685990023686</v>
+        <v>0.00159281928068898</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,10 +2016,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H26">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I26">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J26">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N26">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O26">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P26">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q26">
-        <v>0.9830856042426666</v>
+        <v>1.857357168056</v>
       </c>
       <c r="R26">
-        <v>8.847770438184</v>
+        <v>16.716214512504</v>
       </c>
       <c r="S26">
-        <v>0.001154435039896591</v>
+        <v>0.002540895321126088</v>
       </c>
       <c r="T26">
-        <v>0.001154435039896591</v>
+        <v>0.002540895321126087</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,10 +2078,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H27">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I27">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J27">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>188.990975</v>
       </c>
       <c r="O27">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P27">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q27">
-        <v>10.57690091487222</v>
+        <v>11.156704227175</v>
       </c>
       <c r="R27">
-        <v>95.19210823384999</v>
+        <v>100.410338044575</v>
       </c>
       <c r="S27">
-        <v>0.01242042908262216</v>
+        <v>0.0152625558818539</v>
       </c>
       <c r="T27">
-        <v>0.01242042908262217</v>
+        <v>0.01526255588185389</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,10 +2140,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H28">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I28">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J28">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N28">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O28">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P28">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q28">
-        <v>0.04433214715044444</v>
+        <v>0.058846337654</v>
       </c>
       <c r="R28">
-        <v>0.3989893243539999</v>
+        <v>0.529617038886</v>
       </c>
       <c r="S28">
-        <v>5.20591328399636E-05</v>
+        <v>8.050276305604264E-05</v>
       </c>
       <c r="T28">
-        <v>5.205913283996361E-05</v>
+        <v>8.050276305604262E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,10 +2202,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H29">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I29">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J29">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N29">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O29">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P29">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q29">
-        <v>7.364562748181998</v>
+        <v>1.816076630849</v>
       </c>
       <c r="R29">
-        <v>66.28106473363799</v>
+        <v>16.344689677641</v>
       </c>
       <c r="S29">
-        <v>0.008648188167263413</v>
+        <v>0.002484422863568224</v>
       </c>
       <c r="T29">
-        <v>0.008648188167263416</v>
+        <v>0.002484422863568223</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H30">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I30">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J30">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N30">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O30">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P30">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q30">
-        <v>0.1281264694126666</v>
+        <v>0.134102255417</v>
       </c>
       <c r="R30">
-        <v>1.153138224714</v>
+        <v>1.206920298753</v>
       </c>
       <c r="S30">
-        <v>0.0001504586021704269</v>
+        <v>0.0001834541030673953</v>
       </c>
       <c r="T30">
-        <v>0.000150458602170427</v>
+        <v>0.0001834541030673953</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1678953333333333</v>
+        <v>0.177099</v>
       </c>
       <c r="H31">
-        <v>0.503686</v>
+        <v>0.531297</v>
       </c>
       <c r="I31">
-        <v>0.02266732070852534</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="J31">
-        <v>0.02266732070852535</v>
+        <v>0.02079143292641169</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N31">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O31">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P31">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q31">
-        <v>0.2058683328035555</v>
+        <v>0.175145538997</v>
       </c>
       <c r="R31">
-        <v>1.852814995232</v>
+        <v>1.576309850973</v>
       </c>
       <c r="S31">
-        <v>0.0002417506837327795</v>
+        <v>0.0002396019937400465</v>
       </c>
       <c r="T31">
-        <v>0.0002417506837327795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H32">
-        <v>1.680199</v>
-      </c>
-      <c r="I32">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J32">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>5.855348</v>
-      </c>
-      <c r="N32">
-        <v>17.566044</v>
-      </c>
-      <c r="O32">
-        <v>0.05092948808292105</v>
-      </c>
-      <c r="P32">
-        <v>0.05092948808292105</v>
-      </c>
-      <c r="Q32">
-        <v>3.279383284750667</v>
-      </c>
-      <c r="R32">
-        <v>29.514449562756</v>
-      </c>
-      <c r="S32">
-        <v>0.003850971834832043</v>
-      </c>
-      <c r="T32">
-        <v>0.003850971834832044</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H33">
-        <v>1.680199</v>
-      </c>
-      <c r="I33">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J33">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>62.99699166666667</v>
-      </c>
-      <c r="N33">
-        <v>188.990975</v>
-      </c>
-      <c r="O33">
-        <v>0.547944295769846</v>
-      </c>
-      <c r="P33">
-        <v>0.547944295769846</v>
-      </c>
-      <c r="Q33">
-        <v>35.28249413378055</v>
-      </c>
-      <c r="R33">
-        <v>317.542447204025</v>
-      </c>
-      <c r="S33">
-        <v>0.04143214725879354</v>
-      </c>
-      <c r="T33">
-        <v>0.04143214725879355</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H34">
-        <v>1.680199</v>
-      </c>
-      <c r="I34">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J34">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.2640463333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.7921389999999999</v>
-      </c>
-      <c r="O34">
-        <v>0.002296660179179615</v>
-      </c>
-      <c r="P34">
-        <v>0.002296660179179615</v>
-      </c>
-      <c r="Q34">
-        <v>0.1478834617401111</v>
-      </c>
-      <c r="R34">
-        <v>1.330951155661</v>
-      </c>
-      <c r="S34">
-        <v>0.0001736591903260643</v>
-      </c>
-      <c r="T34">
-        <v>0.0001736591903260643</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H35">
-        <v>1.680199</v>
-      </c>
-      <c r="I35">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J35">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>43.864011</v>
-      </c>
-      <c r="N35">
-        <v>131.592033</v>
-      </c>
-      <c r="O35">
-        <v>0.3815267043894944</v>
-      </c>
-      <c r="P35">
-        <v>0.3815267043894944</v>
-      </c>
-      <c r="Q35">
-        <v>24.566755806063</v>
-      </c>
-      <c r="R35">
-        <v>221.100802254567</v>
-      </c>
-      <c r="S35">
-        <v>0.02884868173911489</v>
-      </c>
-      <c r="T35">
-        <v>0.0288486817391149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H36">
-        <v>1.680199</v>
-      </c>
-      <c r="I36">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J36">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.763133</v>
-      </c>
-      <c r="N36">
-        <v>2.289399</v>
-      </c>
-      <c r="O36">
-        <v>0.006637687978440185</v>
-      </c>
-      <c r="P36">
-        <v>0.006637687978440185</v>
-      </c>
-      <c r="Q36">
-        <v>0.4274051011556667</v>
-      </c>
-      <c r="R36">
-        <v>3.846645910401</v>
-      </c>
-      <c r="S36">
-        <v>0.0005019007733154171</v>
-      </c>
-      <c r="T36">
-        <v>0.0005019007733154172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.5600663333333333</v>
-      </c>
-      <c r="H37">
-        <v>1.680199</v>
-      </c>
-      <c r="I37">
-        <v>0.0756137942828341</v>
-      </c>
-      <c r="J37">
-        <v>0.07561379428283412</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.226170666666667</v>
-      </c>
-      <c r="N37">
-        <v>3.678512</v>
-      </c>
-      <c r="O37">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="P37">
-        <v>0.01066516360011862</v>
-      </c>
-      <c r="Q37">
-        <v>0.6867369093208889</v>
-      </c>
-      <c r="R37">
-        <v>6.180632183888</v>
-      </c>
-      <c r="S37">
-        <v>0.0008064334864521397</v>
-      </c>
-      <c r="T37">
-        <v>0.0008064334864521397</v>
+        <v>0.0002396019937400464</v>
       </c>
     </row>
   </sheetData>
